--- a/data/C1617.xlsx
+++ b/data/C1617.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="9520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28520" windowHeight="17720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="47">
   <si>
     <t>ESO1A</t>
   </si>
@@ -49,9 +49,6 @@
     <t>ESO2B</t>
   </si>
   <si>
-    <t>ESO2C</t>
-  </si>
-  <si>
     <t>ESO3A</t>
   </si>
   <si>
@@ -163,13 +160,16 @@
     <t>éxito</t>
   </si>
   <si>
-    <t>absentismo</t>
-  </si>
-  <si>
     <t>partes</t>
   </si>
   <si>
     <t>suspensión_asistencia</t>
+  </si>
+  <si>
+    <t>absentismo_justificado</t>
+  </si>
+  <si>
+    <t>absentismo_injustificado</t>
   </si>
 </sst>
 </file>
@@ -180,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-C0A];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-C0A]"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,17 +221,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -295,29 +284,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Campo de la tabla dinámica" xfId="2"/>
@@ -614,824 +600,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>41.7</v>
       </c>
       <c r="D2">
-        <v>5.73</v>
+        <f ca="1">RANDBETWEEN(0, 25)</f>
+        <v>3</v>
       </c>
       <c r="E2">
+        <f ca="1">RANDBETWEEN(0, 25)</f>
+        <v>17</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>46.2</v>
       </c>
       <c r="D3">
-        <v>4.38</v>
+        <f t="shared" ref="D3:E35" ca="1" si="0">RANDBETWEEN(0, 25)</f>
+        <v>12</v>
       </c>
       <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>9.4499999999999993</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>46.2</v>
       </c>
       <c r="D5">
-        <v>4.1100000000000003</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
       <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>46.2</v>
       </c>
       <c r="D6">
-        <v>3.53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>30.8</v>
       </c>
       <c r="D7">
-        <v>3.45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>16.7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>16.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D9">
-        <v>12.81</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>40.700000000000003</v>
+        <v>18.5</v>
       </c>
       <c r="D10">
-        <v>5.04</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>18.5</v>
-      </c>
-      <c r="D11">
-        <v>6.77</v>
-      </c>
-      <c r="E11">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>30.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>10.15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>30.8</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D13">
-        <v>6.4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D14">
-        <v>6.73</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="C15">
-        <v>36.799999999999997</v>
+        <v>85.7</v>
       </c>
       <c r="D15">
-        <v>16.28</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>85.7</v>
+        <v>61.5</v>
       </c>
       <c r="D16">
-        <v>13.26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
       <c r="C17">
-        <v>61.5</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>5.34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>52.9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>6.93</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>52.9</v>
+        <v>31.8</v>
       </c>
       <c r="D19">
-        <v>6.98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>55.6</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>43.8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>31.8</v>
-      </c>
-      <c r="D20">
-        <v>7.96</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>55.6</v>
-      </c>
-      <c r="D21">
-        <v>20.36</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>43.8</v>
+        <v>47.4</v>
       </c>
       <c r="D22">
-        <v>19.309999999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>47.4</v>
+        <v>55.6</v>
       </c>
       <c r="D23">
-        <v>15.88</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>55.6</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>20.45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>72.7</v>
       </c>
       <c r="D25">
-        <v>15.63</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>72.7</v>
+        <v>44.4</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
       <c r="C27">
-        <v>44.4</v>
+        <v>45.5</v>
       </c>
       <c r="D27">
-        <v>17.02</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>45.5</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>10.23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D29">
-        <v>17.829999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>31</v>
       </c>
-      <c r="C30">
-        <v>36.700000000000003</v>
-      </c>
       <c r="D30">
-        <v>9.64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>46.7</v>
       </c>
       <c r="D31">
-        <v>13.92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>46.7</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="D32">
-        <v>11.08</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>70.599999999999994</v>
+        <v>89.5</v>
       </c>
       <c r="D33">
-        <v>10.28</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>89.5</v>
+        <v>88.2</v>
       </c>
       <c r="D34">
-        <v>8.6999999999999993</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>88.2</v>
+        <v>38.5</v>
       </c>
       <c r="D35">
-        <v>8.43</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>38.5</v>
-      </c>
-      <c r="D36">
-        <v>3.18</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>13</v>
       </c>
     </row>
@@ -1442,827 +1596,992 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2">
-        <v>4.3499999999999996</v>
+        <f ca="1">RANDBETWEEN(0, 25)</f>
+        <v>8</v>
       </c>
       <c r="E2">
+        <f ca="1">RANDBETWEEN(0, 25)</f>
+        <v>18</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>30.8</v>
       </c>
       <c r="D3">
-        <v>2.41</v>
+        <f t="shared" ref="D3:E35" ca="1" si="0">RANDBETWEEN(0, 25)</f>
+        <v>1</v>
       </c>
       <c r="E3">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>19.2</v>
       </c>
       <c r="D4">
-        <v>3.84</v>
-      </c>
-      <c r="E4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>26.9</v>
       </c>
       <c r="D5">
-        <v>3.08</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>30.8</v>
       </c>
       <c r="D6">
-        <v>1.63</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>22.2</v>
       </c>
       <c r="D7">
-        <v>2.31</v>
-      </c>
-      <c r="E7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>18.2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>18.2</v>
+        <v>44.4</v>
       </c>
       <c r="D9">
-        <v>6.71</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>44.4</v>
+        <v>19.2</v>
       </c>
       <c r="D10">
-        <v>3.14</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>18.2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>19.2</v>
-      </c>
-      <c r="D11">
-        <v>3.67</v>
-      </c>
-      <c r="E11" s="6">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>30.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>18.2</v>
-      </c>
-      <c r="D12">
-        <v>5.79</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>30.8</v>
+        <v>27.6</v>
       </c>
       <c r="D13">
-        <v>3.14</v>
-      </c>
-      <c r="E13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>27.6</v>
+        <v>43.8</v>
       </c>
       <c r="D14">
-        <v>3.67</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="C15">
-        <v>43.8</v>
+        <v>85.7</v>
       </c>
       <c r="D15">
-        <v>8.42</v>
-      </c>
-      <c r="E15" s="5">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>85.7</v>
+        <v>46.2</v>
       </c>
       <c r="D16">
-        <v>7.75</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
       <c r="C17">
-        <v>46.2</v>
+        <v>13.8</v>
       </c>
       <c r="D17">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>13.8</v>
+        <v>47.1</v>
       </c>
       <c r="D18">
-        <v>4.41</v>
-      </c>
-      <c r="E18" s="5">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>47.1</v>
+        <v>27.3</v>
       </c>
       <c r="D19">
-        <v>3.36</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>27.3</v>
+        <v>46.7</v>
       </c>
       <c r="D20">
-        <v>4.97</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>46.2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>46.7</v>
-      </c>
-      <c r="D21">
-        <v>7.64</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>46.2</v>
+        <v>56.2</v>
       </c>
       <c r="D22">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>56.2</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>6.59</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>63.6</v>
       </c>
       <c r="D24">
-        <v>11.44</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>63.6</v>
+        <v>90</v>
       </c>
       <c r="D25">
-        <v>7.27</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D26">
-        <v>3.35</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
       <c r="C27">
-        <v>33.299999999999997</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="D27">
-        <v>12.73</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>71.400000000000006</v>
+        <v>56.5</v>
       </c>
       <c r="D28">
-        <v>4.62</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>56.5</v>
+        <v>28.6</v>
       </c>
       <c r="D29">
-        <v>8.56</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>28.6</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D30">
-        <v>6.59</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>33.299999999999997</v>
+        <v>93.3</v>
       </c>
       <c r="D31">
-        <v>11.44</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>93.3</v>
+        <v>87.5</v>
       </c>
       <c r="D32">
-        <v>7.27</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>87.5</v>
+        <v>89.5</v>
       </c>
       <c r="D33">
-        <v>1.98</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>89.5</v>
+        <v>94.1</v>
       </c>
       <c r="D34">
-        <v>2.96</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>94.1</v>
+        <v>100</v>
       </c>
       <c r="D35">
-        <v>1.95</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>0.33</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>13</v>
       </c>
     </row>
@@ -2273,830 +2592,994 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>36</v>
       </c>
-      <c r="D2" s="2">
-        <v>7.8775000000000004</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(0, 25)</f>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(0, 25)</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>57.7</v>
       </c>
-      <c r="D3" s="2">
-        <v>4.1980000000000004</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3">
+        <f t="shared" ref="D3:E35" ca="1" si="0">RANDBETWEEN(0, 25)</f>
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>42.3</v>
       </c>
-      <c r="D4" s="2">
-        <v>9.7680000000000007</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>46.2</v>
       </c>
-      <c r="D5" s="2">
-        <v>4.3815</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="5">
         <v>5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>66.7</v>
       </c>
-      <c r="D6" s="2">
-        <v>3.8984999999999999</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>37</v>
       </c>
-      <c r="D7" s="2">
-        <v>4.9855</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>45.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>51.9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>45.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>13.0115</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>51.9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.3285</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26.9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>18.2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>26.9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7.9474999999999998</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>53.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>18.2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.505000000000001</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>53.8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6.8120000000000003</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51.7</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>51.7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.4874999999999998</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>68.8</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="C15">
-        <v>68.8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>18.9435</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8.8219999999999992</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
       <c r="C17">
-        <v>61.5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7.4989999999999997</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>76.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>76.5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>7.9805000000000001</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63.6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>63.6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8.4450000000000003</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66.7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
       <c r="C21">
-        <v>66.7</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10.829000000000001</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>53.8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>53.8</v>
-      </c>
-      <c r="D22" s="2">
-        <v>18.867999999999999</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73.3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>73.3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8.4425000000000008</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>100</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83.3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
       <c r="C27">
-        <v>83.3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>9.4760000000000009</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>85.7</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>85.7</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2.0830000000000002</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="D29" s="2">
-        <v>15.8195</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66.7</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>66.7</v>
-      </c>
-      <c r="D30" s="2">
-        <v>11.6395</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2">
-        <v>11.5525</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>85.7</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>85.7</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>94.4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>94.4</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36">
         <v>78.599999999999994</v>
       </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="D35">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
